--- a/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC3.4.3_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC3.4.3_TC1.xlsx
@@ -616,11 +616,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2954753853313141</v>
+        <v>0.2865468139027426</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.29547538533131407, 'ngram_match_score': 0.08676156056606386, 'weighted_ngram_match_score': 0.1299385155577272, 'syntax_match_score': 0.5604395604395604, 'dataflow_match_score': 0.40476190476190477}</t>
+          <t>{'codebleu': 0.2865468139027426, 'ngram_match_score': 0.08676156056606386, 'weighted_ngram_match_score': 0.1299385155577272, 'syntax_match_score': 0.5604395604395604, 'dataflow_match_score': 0.36904761904761907}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">

--- a/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC3.4.3_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC3.4.3_TC1.xlsx
@@ -616,11 +616,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2865468139027426</v>
+        <v>0.3103563377122665</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.2865468139027426, 'ngram_match_score': 0.08676156056606386, 'weighted_ngram_match_score': 0.1299385155577272, 'syntax_match_score': 0.5604395604395604, 'dataflow_match_score': 0.36904761904761907}</t>
+          <t>{'codebleu': 0.31035633771226645, 'ngram_match_score': 0.08676156056606386, 'weighted_ngram_match_score': 0.1299385155577272, 'syntax_match_score': 0.5604395604395604, 'dataflow_match_score': 0.4642857142857143}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
